--- a/medicine/Mort/Cimetière_de_Recoleta/Cimetière_de_Recoleta.xlsx
+++ b/medicine/Mort/Cimetière_de_Recoleta/Cimetière_de_Recoleta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Recoleta</t>
+          <t>Cimetière_de_Recoleta</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cimetière de Recoleta est un célèbre cimetière situé dans le quartier de Recoleta à Buenos Aires (Argentine). Les jardins qui entourent le cimetière constituent une aire de délassement populaire. D'autre part, La Recoleta est un des quartiers les plus distingués de la ville et le cimetière possède également cette caractéristique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Recoleta</t>
+          <t>Cimetière_de_Recoleta</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il se trouve au côté de l'ancien couvent des pères récollets franciscains (los recoletos) : le Convento de la Recoleta[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se trouve au côté de l'ancien couvent des pères récollets franciscains (los recoletos) : le Convento de la Recoleta. 
 Le cimetière de Recoleta fut dessiné par le Français Prosper Catelin, à l'initiative du ministre Bernardino Rivadavia, et inauguré en 1822.
 </t>
         </is>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Recoleta</t>
+          <t>Cimetière_de_Recoleta</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il constitue une superbe exposition d'architecture funéraire du XIXe et du début du XXe siècle, avec des panthéons familiaux et des caveaux de la haute bourgeoisie et des anciens estancieros richissimes. 
 Parmi eux se trouvent les sépultures de nombreux protagonistes de l'histoire argentine.
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Recoleta</t>
+          <t>Cimetière_de_Recoleta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Personnalités inhumées à Recoleta</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Panthéon Radical
 Leandro N. Alem (1842-1896), fondateur du parti politique Union civique radicale.
@@ -629,7 +647,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Cimeti%C3%A8re_de_Recoleta</t>
+          <t>Cimetière_de_Recoleta</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -647,7 +665,9 @@
           <t>Métro</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Le cimetière de Recoleta est accessible par la ligne  du métro ou subte de la ville, grâce à la station "Pueyrredón", située à environ un kilomètre au sud du cimetière.</t>
         </is>
